--- a/2. visualization+analysis/donghwa/burger_stat_df.xlsx
+++ b/2. visualization+analysis/donghwa/burger_stat_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>버거킹</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>버거지수</t>
+  </si>
+  <si>
+    <t>BKM</t>
   </si>
   <si>
     <t>시도별</t>
@@ -458,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +504,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>9</v>
       </c>
@@ -516,31 +522,34 @@
         <v>54</v>
       </c>
       <c r="E2">
-        <v>12.12962962962963</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
+        <v>0.3518518518518519</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
         <v>32061</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>29392</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>18997</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>16811</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1515</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>100</v>
       </c>
@@ -554,31 +563,34 @@
         <v>317</v>
       </c>
       <c r="E3">
-        <v>150.3028391167192</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+        <v>0.7760252365930599</v>
+      </c>
+      <c r="F3">
+        <v>246</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
         <v>36133</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>38466</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20482</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>17399</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13405</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1315</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>24</v>
       </c>
@@ -592,31 +604,34 @@
         <v>87</v>
       </c>
       <c r="E4">
-        <v>28.33333333333333</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>33690</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>32140</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>18939</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>16426</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3350</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>25</v>
       </c>
@@ -630,31 +645,34 @@
         <v>68</v>
       </c>
       <c r="E5">
-        <v>29.22058823529412</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
         <v>40272</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>34873</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>18611</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>16217</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2655</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>15</v>
       </c>
@@ -668,31 +686,34 @@
         <v>42</v>
       </c>
       <c r="E6">
-        <v>18.23809523809524</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
         <v>27548</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30964</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20532</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>18231</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1488</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2969</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>20</v>
       </c>
@@ -706,31 +727,34 @@
         <v>66</v>
       </c>
       <c r="E7">
-        <v>30.37878787878788</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
         <v>23744</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>27798</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>19210</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>17850</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2419</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2738</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>14</v>
       </c>
@@ -744,31 +768,34 @@
         <v>51</v>
       </c>
       <c r="E8">
-        <v>19.25490196078431</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
         <v>28364</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>31548</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>20498</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>18025</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1500</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2780</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>20</v>
       </c>
@@ -782,31 +809,34 @@
         <v>82</v>
       </c>
       <c r="E9">
-        <v>29.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
         <v>27409</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>29388</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>19680</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>18030</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3344</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4342</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>111</v>
       </c>
@@ -820,31 +850,34 @@
         <v>181</v>
       </c>
       <c r="E10">
-        <v>184.5303867403315</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
+        <v>1.546961325966851</v>
+      </c>
+      <c r="F10">
+        <v>280</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
         <v>44865</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>49121</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>23440</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>21891</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>9602</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>15865</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>0</v>
       </c>
@@ -858,31 +891,34 @@
         <v>10</v>
       </c>
       <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
         <v>35826</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>36983</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>19789</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16762</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>349</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>750</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>9</v>
       </c>
@@ -896,31 +932,34 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>11.32258064516129</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
         <v>65352</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>54969</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>22550</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>18482</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1140</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1073</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>23</v>
       </c>
@@ -934,31 +973,34 @@
         <v>74</v>
       </c>
       <c r="E13">
-        <v>34.24324324324324</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13">
+        <v>0.7027027027027027</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
         <v>30425</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>32571</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>19332</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>16451</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2951</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2770</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>7</v>
       </c>
@@ -972,31 +1014,34 @@
         <v>51</v>
       </c>
       <c r="E14">
-        <v>9.156862745098039</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
         <v>43323</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>35532</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>18711</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>16104</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1764</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1010,31 +1055,34 @@
         <v>53</v>
       </c>
       <c r="E15">
-        <v>15.20754716981132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15">
+        <v>0.4905660377358491</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15">
         <v>28740</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>28260</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>18725</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>16022</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1792</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1048,31 +1096,34 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>2.571428571428571</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
         <v>30720</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>30834</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>18734</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>16953</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>670</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>9</v>
       </c>
@@ -1086,31 +1137,34 @@
         <v>66</v>
       </c>
       <c r="E17">
-        <v>14.15151515151515</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17">
         <v>52402</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>40953</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>18955</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>16037</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2204</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>10</v>
       </c>
@@ -1124,27 +1178,30 @@
         <v>57</v>
       </c>
       <c r="E18">
-        <v>12.14035087719298</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18">
+        <v>0.3508771929824561</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
         <v>42653</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>34484</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>18823</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>15802</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1632</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>220</v>
       </c>
     </row>

--- a/2. visualization+analysis/donghwa/burger_stat_df.xlsx
+++ b/2. visualization+analysis/donghwa/burger_stat_df.xlsx
@@ -28,10 +28,10 @@
     <t>롯데리아</t>
   </si>
   <si>
+    <t>BKM</t>
+  </si>
+  <si>
     <t>버거지수</t>
-  </si>
-  <si>
-    <t>BKM</t>
   </si>
   <si>
     <t>시도별</t>
@@ -522,10 +522,10 @@
         <v>54</v>
       </c>
       <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
         <v>0.3518518518518519</v>
-      </c>
-      <c r="F2">
-        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -563,10 +563,10 @@
         <v>317</v>
       </c>
       <c r="E3">
+        <v>246</v>
+      </c>
+      <c r="F3">
         <v>0.7760252365930599</v>
-      </c>
-      <c r="F3">
-        <v>246</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -604,10 +604,10 @@
         <v>87</v>
       </c>
       <c r="E4">
+        <v>57</v>
+      </c>
+      <c r="F4">
         <v>0.6551724137931034</v>
-      </c>
-      <c r="F4">
-        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -645,10 +645,10 @@
         <v>68</v>
       </c>
       <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="F5">
         <v>0.6470588235294118</v>
-      </c>
-      <c r="F5">
-        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -686,10 +686,10 @@
         <v>42</v>
       </c>
       <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="F6">
-        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -727,10 +727,10 @@
         <v>66</v>
       </c>
       <c r="E7">
+        <v>55</v>
+      </c>
+      <c r="F7">
         <v>0.8333333333333334</v>
-      </c>
-      <c r="F7">
-        <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -768,10 +768,10 @@
         <v>51</v>
       </c>
       <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
         <v>0.6274509803921569</v>
-      </c>
-      <c r="F8">
-        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -809,10 +809,10 @@
         <v>82</v>
       </c>
       <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9">
         <v>0.8536585365853658</v>
-      </c>
-      <c r="F9">
-        <v>70</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -850,10 +850,10 @@
         <v>181</v>
       </c>
       <c r="E10">
+        <v>280</v>
+      </c>
+      <c r="F10">
         <v>1.546961325966851</v>
-      </c>
-      <c r="F10">
-        <v>280</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -891,10 +891,10 @@
         <v>10</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0.1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
@@ -932,10 +932,10 @@
         <v>31</v>
       </c>
       <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
         <v>0.6774193548387096</v>
-      </c>
-      <c r="F12">
-        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -973,10 +973,10 @@
         <v>74</v>
       </c>
       <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13">
         <v>0.7027027027027027</v>
-      </c>
-      <c r="F13">
-        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -1014,10 +1014,10 @@
         <v>51</v>
       </c>
       <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="F14">
-        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -1055,10 +1055,10 @@
         <v>53</v>
       </c>
       <c r="E15">
+        <v>26</v>
+      </c>
+      <c r="F15">
         <v>0.4905660377358491</v>
-      </c>
-      <c r="F15">
-        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -1096,10 +1096,10 @@
         <v>14</v>
       </c>
       <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
         <v>0.7142857142857143</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -1137,10 +1137,10 @@
         <v>66</v>
       </c>
       <c r="E17">
+        <v>24</v>
+      </c>
+      <c r="F17">
         <v>0.3636363636363636</v>
-      </c>
-      <c r="F17">
-        <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
@@ -1178,10 +1178,10 @@
         <v>57</v>
       </c>
       <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
         <v>0.3508771929824561</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
